--- a/biology/Microbiologie/Rathayibacter_tritici/Rathayibacter_tritici.xlsx
+++ b/biology/Microbiologie/Rathayibacter_tritici/Rathayibacter_tritici.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rathayibacter tritici est une espèce d'Actinobactéries de la famille des Microbacteriaceae. Ce sont des  bactéries du sol à Gram positif, non mobiles et en forme de bâtonnet[2]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rathayibacter tritici est une espèce d'Actinobactéries de la famille des Microbacteriaceae. Ce sont des  bactéries du sol à Gram positif, non mobiles et en forme de bâtonnet. 
 Ces bactéries phytopathogènes sont souvent associées à un nématode vecteur biologique, Anguina tritici. Elles sont responsables de la bactériose des épis du blé et de l'orge.
 </t>
         </is>
@@ -514,15 +526,54 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Synonymes
-Selon OEPP[3] : 
-Rathayibacter tritici  (préféré par NCBI)[4]
-Clavibacter tritici 	(Carlson &amp; Vidaver) Davis, Gillaspie, Vidaver &amp; Harris[4]
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon OEPP : 
+Rathayibacter tritici  (préféré par NCBI)
+Clavibacter tritici 	(Carlson &amp; Vidaver) Davis, Gillaspie, Vidaver &amp; Harris
 Corynebacterium michiganense pv. tritici 	(Hutchinson) Dye &amp; Kemp
 Corynebacterium tritici 	(Hutchinson) Burkholder
-Phytomonas tritici 	(Hutchinson) Bergey
-Liste des non-classés
-Selon NCBI  (24 mai 2022)[4] :
+Phytomonas tritici 	(Hutchinson) Bergey</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Rathayibacter_tritici</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rathayibacter_tritici</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des non-classés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (24 mai 2022) :
 non-classé Rathayibacter tritici NCPPB 1857</t>
         </is>
       </c>
